--- a/data/output/FV2404_FV2310/UTILMD/55191.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55191.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4715" uniqueCount="396">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4736" uniqueCount="396">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1345,6 +1345,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U221" totalsRowShown="0">
+  <autoFilter ref="A1:U221"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1634,7 +1664,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11892,5 +11925,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55191.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55191.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5798" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5738" uniqueCount="608">
   <si>
     <t>#</t>
   </si>
@@ -7086,44 +7086,42 @@
       <c r="V92" s="9"/>
     </row>
     <row r="93" spans="1:22">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="K93" s="2"/>
-      <c r="L93" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="M93" s="2" t="s">
+      <c r="C93" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K93" s="5"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N93" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="2"/>
-      <c r="R93" s="2"/>
-      <c r="S93" s="2"/>
-      <c r="T93" s="2"/>
-      <c r="U93" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="V93" s="2"/>
+      <c r="N93" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="5"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="V93" s="5"/>
     </row>
     <row r="94" spans="1:22">
       <c r="A94" s="2" t="s">
@@ -7284,46 +7282,44 @@
       <c r="V96" s="2"/>
     </row>
     <row r="97" spans="1:22">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2" t="s">
+      <c r="C97" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="K97" s="2" t="s">
+      <c r="K97" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="L97" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="M97" s="2" t="s">
+      <c r="L97" s="7"/>
+      <c r="M97" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N97" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="2"/>
-      <c r="R97" s="2"/>
-      <c r="S97" s="2"/>
-      <c r="T97" s="2"/>
-      <c r="U97" s="2" t="s">
+      <c r="N97" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="5"/>
+      <c r="T97" s="5"/>
+      <c r="U97" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="V97" s="2" t="s">
+      <c r="V97" s="5" t="s">
         <v>314</v>
       </c>
     </row>
@@ -7486,44 +7482,42 @@
       <c r="V100" s="2"/>
     </row>
     <row r="101" spans="1:22">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="K101" s="2"/>
-      <c r="L101" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="M101" s="2" t="s">
+      <c r="C101" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K101" s="5"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N101" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O101" s="2"/>
-      <c r="P101" s="2"/>
-      <c r="Q101" s="2"/>
-      <c r="R101" s="2"/>
-      <c r="S101" s="2"/>
-      <c r="T101" s="2"/>
-      <c r="U101" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="V101" s="2"/>
+      <c r="N101" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O101" s="5"/>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="5"/>
+      <c r="S101" s="5"/>
+      <c r="T101" s="5"/>
+      <c r="U101" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="V101" s="5"/>
     </row>
     <row r="102" spans="1:22">
       <c r="A102" s="2" t="s">
@@ -7684,46 +7678,44 @@
       <c r="V104" s="2"/>
     </row>
     <row r="105" spans="1:22">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2" t="s">
+      <c r="C105" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="K105" s="2" t="s">
+      <c r="K105" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="L105" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="M105" s="2" t="s">
+      <c r="L105" s="7"/>
+      <c r="M105" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N105" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O105" s="2"/>
-      <c r="P105" s="2"/>
-      <c r="Q105" s="2"/>
-      <c r="R105" s="2"/>
-      <c r="S105" s="2"/>
-      <c r="T105" s="2"/>
-      <c r="U105" s="2" t="s">
+      <c r="N105" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O105" s="5"/>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
+      <c r="R105" s="5"/>
+      <c r="S105" s="5"/>
+      <c r="T105" s="5"/>
+      <c r="U105" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="V105" s="2" t="s">
+      <c r="V105" s="5" t="s">
         <v>306</v>
       </c>
     </row>
@@ -7990,44 +7982,42 @@
       <c r="V110" s="2"/>
     </row>
     <row r="111" spans="1:22">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="K111" s="2"/>
-      <c r="L111" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="M111" s="2" t="s">
+      <c r="C111" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K111" s="5"/>
+      <c r="L111" s="7"/>
+      <c r="M111" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="N111" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O111" s="2"/>
-      <c r="P111" s="2"/>
-      <c r="Q111" s="2"/>
-      <c r="R111" s="2"/>
-      <c r="S111" s="2"/>
-      <c r="T111" s="2"/>
-      <c r="U111" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="V111" s="2"/>
+      <c r="N111" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O111" s="5"/>
+      <c r="P111" s="5"/>
+      <c r="Q111" s="5"/>
+      <c r="R111" s="5"/>
+      <c r="S111" s="5"/>
+      <c r="T111" s="5"/>
+      <c r="U111" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="V111" s="5"/>
     </row>
     <row r="112" spans="1:22">
       <c r="A112" s="2" t="s">
@@ -8265,9 +8255,7 @@
         <v>272</v>
       </c>
       <c r="K116" s="2"/>
-      <c r="L116" s="4" t="s">
-        <v>327</v>
-      </c>
+      <c r="L116" s="7"/>
       <c r="M116" s="2" t="s">
         <v>47</v>
       </c>
@@ -8321,9 +8309,7 @@
         <v>272</v>
       </c>
       <c r="K117" s="2"/>
-      <c r="L117" s="4" t="s">
-        <v>327</v>
-      </c>
+      <c r="L117" s="7"/>
       <c r="M117" s="2" t="s">
         <v>47</v>
       </c>
@@ -8377,9 +8363,7 @@
         <v>272</v>
       </c>
       <c r="K118" s="2"/>
-      <c r="L118" s="4" t="s">
-        <v>327</v>
-      </c>
+      <c r="L118" s="7"/>
       <c r="M118" s="2" t="s">
         <v>47</v>
       </c>
@@ -8541,9 +8525,7 @@
         <v>289</v>
       </c>
       <c r="K121" s="2"/>
-      <c r="L121" s="4" t="s">
-        <v>327</v>
-      </c>
+      <c r="L121" s="7"/>
       <c r="M121" s="2" t="s">
         <v>48</v>
       </c>
@@ -8599,9 +8581,7 @@
       <c r="K122" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="L122" s="4" t="s">
-        <v>327</v>
-      </c>
+      <c r="L122" s="7"/>
       <c r="M122" s="2" t="s">
         <v>48</v>
       </c>
@@ -8630,44 +8610,42 @@
       </c>
     </row>
     <row r="123" spans="1:22">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="K123" s="2"/>
-      <c r="L123" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="M123" s="2" t="s">
+      <c r="C123" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K123" s="5"/>
+      <c r="L123" s="7"/>
+      <c r="M123" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N123" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O123" s="2"/>
-      <c r="P123" s="2"/>
-      <c r="Q123" s="2"/>
-      <c r="R123" s="2"/>
-      <c r="S123" s="2"/>
-      <c r="T123" s="2"/>
-      <c r="U123" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="V123" s="2"/>
+      <c r="N123" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O123" s="5"/>
+      <c r="P123" s="5"/>
+      <c r="Q123" s="5"/>
+      <c r="R123" s="5"/>
+      <c r="S123" s="5"/>
+      <c r="T123" s="5"/>
+      <c r="U123" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="V123" s="5"/>
     </row>
     <row r="124" spans="1:22">
       <c r="A124" s="2" t="s">
@@ -8859,9 +8837,7 @@
         <v>272</v>
       </c>
       <c r="K127" s="2"/>
-      <c r="L127" s="4" t="s">
-        <v>327</v>
-      </c>
+      <c r="L127" s="7"/>
       <c r="M127" s="2" t="s">
         <v>49</v>
       </c>
@@ -8888,44 +8864,42 @@
       <c r="V127" s="2"/>
     </row>
     <row r="128" spans="1:22">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="K128" s="2"/>
-      <c r="L128" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="M128" s="2" t="s">
+      <c r="C128" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K128" s="5"/>
+      <c r="L128" s="7"/>
+      <c r="M128" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N128" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O128" s="2"/>
-      <c r="P128" s="2"/>
-      <c r="Q128" s="2"/>
-      <c r="R128" s="2"/>
-      <c r="S128" s="2"/>
-      <c r="T128" s="2"/>
-      <c r="U128" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="V128" s="2"/>
+      <c r="N128" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O128" s="5"/>
+      <c r="P128" s="5"/>
+      <c r="Q128" s="5"/>
+      <c r="R128" s="5"/>
+      <c r="S128" s="5"/>
+      <c r="T128" s="5"/>
+      <c r="U128" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="V128" s="5"/>
     </row>
     <row r="129" spans="1:22">
       <c r="A129" s="2" t="s">
@@ -9059,9 +9033,7 @@
         <v>272</v>
       </c>
       <c r="K131" s="2"/>
-      <c r="L131" s="4" t="s">
-        <v>327</v>
-      </c>
+      <c r="L131" s="7"/>
       <c r="M131" s="2" t="s">
         <v>50</v>
       </c>
@@ -9394,46 +9366,44 @@
       <c r="V138" s="2"/>
     </row>
     <row r="139" spans="1:22">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2" t="s">
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="K139" s="2" t="s">
+      <c r="K139" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="L139" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="M139" s="2" t="s">
+      <c r="L139" s="7"/>
+      <c r="M139" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="N139" s="2" t="s">
+      <c r="N139" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="O139" s="2"/>
-      <c r="P139" s="2"/>
-      <c r="Q139" s="2"/>
-      <c r="R139" s="2"/>
-      <c r="S139" s="2"/>
-      <c r="T139" s="2"/>
-      <c r="U139" s="2" t="s">
+      <c r="O139" s="5"/>
+      <c r="P139" s="5"/>
+      <c r="Q139" s="5"/>
+      <c r="R139" s="5"/>
+      <c r="S139" s="5"/>
+      <c r="T139" s="5"/>
+      <c r="U139" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="V139" s="2" t="s">
+      <c r="V139" s="5" t="s">
         <v>319</v>
       </c>
     </row>
@@ -9924,44 +9894,42 @@
       <c r="V148" s="2"/>
     </row>
     <row r="149" spans="1:22">
-      <c r="A149" s="2" t="s">
+      <c r="A149" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="2"/>
-      <c r="J149" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="K149" s="2"/>
-      <c r="L149" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="M149" s="2" t="s">
+      <c r="C149" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K149" s="5"/>
+      <c r="L149" s="7"/>
+      <c r="M149" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N149" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O149" s="2"/>
-      <c r="P149" s="2"/>
-      <c r="Q149" s="2"/>
-      <c r="R149" s="2"/>
-      <c r="S149" s="2"/>
-      <c r="T149" s="2"/>
-      <c r="U149" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="V149" s="2"/>
+      <c r="N149" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O149" s="5"/>
+      <c r="P149" s="5"/>
+      <c r="Q149" s="5"/>
+      <c r="R149" s="5"/>
+      <c r="S149" s="5"/>
+      <c r="T149" s="5"/>
+      <c r="U149" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="V149" s="5"/>
     </row>
     <row r="150" spans="1:22">
       <c r="A150" s="2" t="s">
@@ -10172,44 +10140,42 @@
       <c r="V153" s="2"/>
     </row>
     <row r="154" spans="1:22">
-      <c r="A154" s="2" t="s">
+      <c r="A154" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
-      <c r="I154" s="2"/>
-      <c r="J154" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="K154" s="2"/>
-      <c r="L154" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="M154" s="2" t="s">
+      <c r="C154" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K154" s="5"/>
+      <c r="L154" s="7"/>
+      <c r="M154" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N154" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O154" s="2"/>
-      <c r="P154" s="2"/>
-      <c r="Q154" s="2"/>
-      <c r="R154" s="2"/>
-      <c r="S154" s="2"/>
-      <c r="T154" s="2"/>
-      <c r="U154" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="V154" s="2"/>
+      <c r="N154" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O154" s="5"/>
+      <c r="P154" s="5"/>
+      <c r="Q154" s="5"/>
+      <c r="R154" s="5"/>
+      <c r="S154" s="5"/>
+      <c r="T154" s="5"/>
+      <c r="U154" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="V154" s="5"/>
     </row>
     <row r="155" spans="1:22">
       <c r="A155" s="2" t="s">
@@ -10447,9 +10413,7 @@
         <v>295</v>
       </c>
       <c r="K159" s="2"/>
-      <c r="L159" s="4" t="s">
-        <v>327</v>
-      </c>
+      <c r="L159" s="7"/>
       <c r="M159" s="2" t="s">
         <v>56</v>
       </c>
@@ -10476,46 +10440,44 @@
       <c r="V159" s="2"/>
     </row>
     <row r="160" spans="1:22">
-      <c r="A160" s="2" t="s">
+      <c r="A160" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
-      <c r="G160" s="2"/>
-      <c r="H160" s="2"/>
-      <c r="I160" s="2"/>
-      <c r="J160" s="2" t="s">
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="K160" s="2" t="s">
+      <c r="K160" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="L160" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="M160" s="2" t="s">
+      <c r="L160" s="7"/>
+      <c r="M160" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N160" s="2" t="s">
+      <c r="N160" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="O160" s="2"/>
-      <c r="P160" s="2"/>
-      <c r="Q160" s="2"/>
-      <c r="R160" s="2"/>
-      <c r="S160" s="2"/>
-      <c r="T160" s="2"/>
-      <c r="U160" s="2" t="s">
+      <c r="O160" s="5"/>
+      <c r="P160" s="5"/>
+      <c r="Q160" s="5"/>
+      <c r="R160" s="5"/>
+      <c r="S160" s="5"/>
+      <c r="T160" s="5"/>
+      <c r="U160" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="V160" s="2" t="s">
+      <c r="V160" s="5" t="s">
         <v>321</v>
       </c>
     </row>
@@ -10786,46 +10748,44 @@
       </c>
     </row>
     <row r="166" spans="1:22">
-      <c r="A166" s="2" t="s">
+      <c r="A166" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
-      <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
-      <c r="I166" s="2"/>
-      <c r="J166" s="2" t="s">
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="K166" s="2" t="s">
+      <c r="K166" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="L166" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="M166" s="2" t="s">
+      <c r="L166" s="7"/>
+      <c r="M166" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N166" s="2" t="s">
+      <c r="N166" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="O166" s="2"/>
-      <c r="P166" s="2"/>
-      <c r="Q166" s="2"/>
-      <c r="R166" s="2"/>
-      <c r="S166" s="2"/>
-      <c r="T166" s="2"/>
-      <c r="U166" s="2" t="s">
+      <c r="O166" s="5"/>
+      <c r="P166" s="5"/>
+      <c r="Q166" s="5"/>
+      <c r="R166" s="5"/>
+      <c r="S166" s="5"/>
+      <c r="T166" s="5"/>
+      <c r="U166" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="V166" s="2" t="s">
+      <c r="V166" s="5" t="s">
         <v>322</v>
       </c>
     </row>
@@ -11050,44 +11010,42 @@
       <c r="V170" s="2"/>
     </row>
     <row r="171" spans="1:22">
-      <c r="A171" s="2" t="s">
+      <c r="A171" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
-      <c r="G171" s="2"/>
-      <c r="H171" s="2"/>
-      <c r="I171" s="2"/>
-      <c r="J171" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="K171" s="2"/>
-      <c r="L171" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="M171" s="2" t="s">
+      <c r="C171" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
+      <c r="J171" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K171" s="5"/>
+      <c r="L171" s="7"/>
+      <c r="M171" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N171" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O171" s="2"/>
-      <c r="P171" s="2"/>
-      <c r="Q171" s="2"/>
-      <c r="R171" s="2"/>
-      <c r="S171" s="2"/>
-      <c r="T171" s="2"/>
-      <c r="U171" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="V171" s="2"/>
+      <c r="N171" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O171" s="5"/>
+      <c r="P171" s="5"/>
+      <c r="Q171" s="5"/>
+      <c r="R171" s="5"/>
+      <c r="S171" s="5"/>
+      <c r="T171" s="5"/>
+      <c r="U171" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="V171" s="5"/>
     </row>
     <row r="172" spans="1:22">
       <c r="A172" s="2" t="s">
@@ -11352,44 +11310,42 @@
       <c r="V176" s="2"/>
     </row>
     <row r="177" spans="1:22">
-      <c r="A177" s="2" t="s">
+      <c r="A177" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
-      <c r="I177" s="2"/>
-      <c r="J177" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="K177" s="2"/>
-      <c r="L177" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="M177" s="2" t="s">
+      <c r="C177" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="5"/>
+      <c r="J177" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K177" s="5"/>
+      <c r="L177" s="7"/>
+      <c r="M177" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N177" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O177" s="2"/>
-      <c r="P177" s="2"/>
-      <c r="Q177" s="2"/>
-      <c r="R177" s="2"/>
-      <c r="S177" s="2"/>
-      <c r="T177" s="2"/>
-      <c r="U177" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="V177" s="2"/>
+      <c r="N177" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O177" s="5"/>
+      <c r="P177" s="5"/>
+      <c r="Q177" s="5"/>
+      <c r="R177" s="5"/>
+      <c r="S177" s="5"/>
+      <c r="T177" s="5"/>
+      <c r="U177" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="V177" s="5"/>
     </row>
     <row r="178" spans="1:22">
       <c r="A178" s="2" t="s">
@@ -11550,44 +11506,42 @@
       <c r="V180" s="2"/>
     </row>
     <row r="181" spans="1:22">
-      <c r="A181" s="2" t="s">
+      <c r="A181" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
-      <c r="G181" s="2"/>
-      <c r="H181" s="2"/>
-      <c r="I181" s="2"/>
-      <c r="J181" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="K181" s="2"/>
-      <c r="L181" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="M181" s="2" t="s">
+      <c r="C181" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
+      <c r="J181" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K181" s="5"/>
+      <c r="L181" s="7"/>
+      <c r="M181" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N181" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O181" s="2"/>
-      <c r="P181" s="2"/>
-      <c r="Q181" s="2"/>
-      <c r="R181" s="2"/>
-      <c r="S181" s="2"/>
-      <c r="T181" s="2"/>
-      <c r="U181" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="V181" s="2"/>
+      <c r="N181" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O181" s="5"/>
+      <c r="P181" s="5"/>
+      <c r="Q181" s="5"/>
+      <c r="R181" s="5"/>
+      <c r="S181" s="5"/>
+      <c r="T181" s="5"/>
+      <c r="U181" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="V181" s="5"/>
     </row>
     <row r="182" spans="1:22">
       <c r="A182" s="2" t="s">
@@ -11779,9 +11733,7 @@
         <v>272</v>
       </c>
       <c r="K185" s="2"/>
-      <c r="L185" s="4" t="s">
-        <v>327</v>
-      </c>
+      <c r="L185" s="7"/>
       <c r="M185" s="2" t="s">
         <v>61</v>
       </c>
@@ -11808,46 +11760,44 @@
       <c r="V185" s="2"/>
     </row>
     <row r="186" spans="1:22">
-      <c r="A186" s="2" t="s">
+      <c r="A186" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D186" s="2"/>
-      <c r="E186" s="2"/>
-      <c r="F186" s="2"/>
-      <c r="G186" s="2"/>
-      <c r="H186" s="2"/>
-      <c r="I186" s="2"/>
-      <c r="J186" s="2" t="s">
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="5"/>
+      <c r="I186" s="5"/>
+      <c r="J186" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="K186" s="2" t="s">
+      <c r="K186" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="L186" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="M186" s="2" t="s">
+      <c r="L186" s="7"/>
+      <c r="M186" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N186" s="2" t="s">
+      <c r="N186" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="O186" s="2"/>
-      <c r="P186" s="2"/>
-      <c r="Q186" s="2"/>
-      <c r="R186" s="2"/>
-      <c r="S186" s="2"/>
-      <c r="T186" s="2"/>
-      <c r="U186" s="2" t="s">
+      <c r="O186" s="5"/>
+      <c r="P186" s="5"/>
+      <c r="Q186" s="5"/>
+      <c r="R186" s="5"/>
+      <c r="S186" s="5"/>
+      <c r="T186" s="5"/>
+      <c r="U186" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="V186" s="2" t="s">
+      <c r="V186" s="5" t="s">
         <v>324</v>
       </c>
     </row>
@@ -12338,44 +12288,42 @@
       <c r="V195" s="2"/>
     </row>
     <row r="196" spans="1:22">
-      <c r="A196" s="2" t="s">
+      <c r="A196" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D196" s="2"/>
-      <c r="E196" s="2"/>
-      <c r="F196" s="2"/>
-      <c r="G196" s="2"/>
-      <c r="H196" s="2"/>
-      <c r="I196" s="2"/>
-      <c r="J196" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="K196" s="2"/>
-      <c r="L196" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="M196" s="2" t="s">
+      <c r="C196" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
+      <c r="J196" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K196" s="5"/>
+      <c r="L196" s="7"/>
+      <c r="M196" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N196" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O196" s="2"/>
-      <c r="P196" s="2"/>
-      <c r="Q196" s="2"/>
-      <c r="R196" s="2"/>
-      <c r="S196" s="2"/>
-      <c r="T196" s="2"/>
-      <c r="U196" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="V196" s="2"/>
+      <c r="N196" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O196" s="5"/>
+      <c r="P196" s="5"/>
+      <c r="Q196" s="5"/>
+      <c r="R196" s="5"/>
+      <c r="S196" s="5"/>
+      <c r="T196" s="5"/>
+      <c r="U196" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="V196" s="5"/>
     </row>
     <row r="197" spans="1:22">
       <c r="A197" s="2" t="s">
@@ -12586,44 +12534,42 @@
       <c r="V200" s="2"/>
     </row>
     <row r="201" spans="1:22">
-      <c r="A201" s="2" t="s">
+      <c r="A201" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
-      <c r="F201" s="2"/>
-      <c r="G201" s="2"/>
-      <c r="H201" s="2"/>
-      <c r="I201" s="2"/>
-      <c r="J201" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="K201" s="2"/>
-      <c r="L201" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="M201" s="2" t="s">
+      <c r="C201" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
+      <c r="I201" s="5"/>
+      <c r="J201" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K201" s="5"/>
+      <c r="L201" s="7"/>
+      <c r="M201" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N201" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O201" s="2"/>
-      <c r="P201" s="2"/>
-      <c r="Q201" s="2"/>
-      <c r="R201" s="2"/>
-      <c r="S201" s="2"/>
-      <c r="T201" s="2"/>
-      <c r="U201" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="V201" s="2"/>
+      <c r="N201" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O201" s="5"/>
+      <c r="P201" s="5"/>
+      <c r="Q201" s="5"/>
+      <c r="R201" s="5"/>
+      <c r="S201" s="5"/>
+      <c r="T201" s="5"/>
+      <c r="U201" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="V201" s="5"/>
     </row>
     <row r="202" spans="1:22">
       <c r="A202" s="2" t="s">
@@ -12861,9 +12807,7 @@
         <v>301</v>
       </c>
       <c r="K206" s="2"/>
-      <c r="L206" s="4" t="s">
-        <v>327</v>
-      </c>
+      <c r="L206" s="7"/>
       <c r="M206" s="2" t="s">
         <v>56</v>
       </c>
@@ -12890,46 +12834,44 @@
       <c r="V206" s="2"/>
     </row>
     <row r="207" spans="1:22">
-      <c r="A207" s="2" t="s">
+      <c r="A207" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C207" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D207" s="2"/>
-      <c r="E207" s="2"/>
-      <c r="F207" s="2"/>
-      <c r="G207" s="2"/>
-      <c r="H207" s="2"/>
-      <c r="I207" s="2"/>
-      <c r="J207" s="2" t="s">
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="5"/>
+      <c r="I207" s="5"/>
+      <c r="J207" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="K207" s="2" t="s">
+      <c r="K207" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="L207" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="M207" s="2" t="s">
+      <c r="L207" s="7"/>
+      <c r="M207" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N207" s="2" t="s">
+      <c r="N207" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="O207" s="2"/>
-      <c r="P207" s="2"/>
-      <c r="Q207" s="2"/>
-      <c r="R207" s="2"/>
-      <c r="S207" s="2"/>
-      <c r="T207" s="2"/>
-      <c r="U207" s="2" t="s">
+      <c r="O207" s="5"/>
+      <c r="P207" s="5"/>
+      <c r="Q207" s="5"/>
+      <c r="R207" s="5"/>
+      <c r="S207" s="5"/>
+      <c r="T207" s="5"/>
+      <c r="U207" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="V207" s="2" t="s">
+      <c r="V207" s="5" t="s">
         <v>326</v>
       </c>
     </row>
@@ -13200,44 +13142,42 @@
       </c>
     </row>
     <row r="213" spans="1:22">
-      <c r="A213" s="2" t="s">
+      <c r="A213" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B213" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
-      <c r="F213" s="2"/>
-      <c r="G213" s="2"/>
-      <c r="H213" s="2"/>
-      <c r="I213" s="2"/>
-      <c r="J213" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="K213" s="2"/>
-      <c r="L213" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="M213" s="2" t="s">
+      <c r="C213" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
+      <c r="J213" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K213" s="5"/>
+      <c r="L213" s="7"/>
+      <c r="M213" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N213" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O213" s="2"/>
-      <c r="P213" s="2"/>
-      <c r="Q213" s="2"/>
-      <c r="R213" s="2"/>
-      <c r="S213" s="2"/>
-      <c r="T213" s="2"/>
-      <c r="U213" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="V213" s="2"/>
+      <c r="N213" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O213" s="5"/>
+      <c r="P213" s="5"/>
+      <c r="Q213" s="5"/>
+      <c r="R213" s="5"/>
+      <c r="S213" s="5"/>
+      <c r="T213" s="5"/>
+      <c r="U213" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="V213" s="5"/>
     </row>
     <row r="214" spans="1:22">
       <c r="A214" s="2" t="s">
